--- a/docs/testcases/conduit_TC_panniangyan_manual_xls.xlsx
+++ b/docs/testcases/conduit_TC_panniangyan_manual_xls.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="TC-001" sheetId="1" state="visible" r:id="rId2"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="399">
   <si>
     <t xml:space="preserve">Projekt neve:</t>
   </si>
@@ -1246,6 +1246,9 @@
     <t xml:space="preserve">böngészés</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_0</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0002</t>
   </si>
   <si>
@@ -1261,6 +1264,9 @@
     <t xml:space="preserve">felhasználókezelés</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_1</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0003</t>
   </si>
   <si>
@@ -1273,6 +1279,9 @@
     <t xml:space="preserve">Bejelentkezés helyes adatokkal</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0004</t>
   </si>
   <si>
@@ -1300,6 +1309,9 @@
     <t xml:space="preserve">failed</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_4</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0006</t>
   </si>
   <si>
@@ -1312,6 +1324,9 @@
     <t xml:space="preserve">posztok lapozhatósága</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_5</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0007</t>
   </si>
   <si>
@@ -1324,6 +1339,9 @@
     <t xml:space="preserve">új cikk létrehozása minden mező kitöltésével</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_6</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0008</t>
   </si>
   <si>
@@ -1336,6 +1354,9 @@
     <t xml:space="preserve">saját cikk cimének szerkesztése</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_8</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0009</t>
   </si>
   <si>
@@ -1345,13 +1366,22 @@
     <t xml:space="preserve">saját cikk törlése</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_9</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0010</t>
   </si>
   <si>
     <t xml:space="preserve">kijelentkezés</t>
   </si>
   <si>
+    <t xml:space="preserve">Test_11</t>
+  </si>
+  <si>
     <t xml:space="preserve">TC-0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test_3</t>
   </si>
   <si>
     <t xml:space="preserve">TC-0012</t>
@@ -4883,8 +4913,8 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="N25" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5470,7 +5500,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6194,7 +6224,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -6983,7 +7013,7 @@
   </sheetPr>
   <dimension ref="A1:IW44"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -8152,7 +8182,7 @@
   </sheetPr>
   <dimension ref="A1:IW43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -9317,7 +9347,7 @@
   </sheetPr>
   <dimension ref="A1:IW43"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -10482,7 +10512,7 @@
   </sheetPr>
   <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
@@ -11542,23 +11572,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N61"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.89"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="62" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="22.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="7.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="66" customFormat="true" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="66" customFormat="true" ht="46.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="63" t="s">
         <v>260</v>
       </c>
@@ -11599,7 +11632,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" s="66" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" s="66" customFormat="true" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="67" t="s">
         <v>269</v>
       </c>
@@ -11627,24 +11660,26 @@
       <c r="K2" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="67" t="s">
+        <v>273</v>
+      </c>
       <c r="M2" s="68"/>
     </row>
-    <row r="3" s="66" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="66" customFormat="true" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="67" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B3" s="67" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C3" s="68" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D3" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E3" s="68" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="F3" s="67" t="s">
         <v>18</v>
@@ -11655,29 +11690,31 @@
         <v>9</v>
       </c>
       <c r="J3" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K3" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L3" s="67"/>
+      <c r="L3" s="67" t="s">
+        <v>279</v>
+      </c>
       <c r="M3" s="68"/>
     </row>
-    <row r="4" s="66" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="66" customFormat="true" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C4" s="68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D4" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E4" s="68" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F4" s="67" t="s">
         <v>18</v>
@@ -11688,29 +11725,31 @@
         <v>9</v>
       </c>
       <c r="J4" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K4" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L4" s="67"/>
+      <c r="L4" s="67" t="s">
+        <v>284</v>
+      </c>
       <c r="M4" s="68"/>
     </row>
-    <row r="5" s="66" customFormat="true" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" s="66" customFormat="true" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="67" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D5" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E5" s="68" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F5" s="67" t="s">
         <v>18</v>
@@ -11721,7 +11760,7 @@
         <v>9</v>
       </c>
       <c r="J5" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K5" s="71" t="n">
         <v>44412</v>
@@ -11729,27 +11768,27 @@
       <c r="L5" s="67"/>
       <c r="M5" s="68"/>
       <c r="N5" s="66" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" s="66" customFormat="true" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" s="66" customFormat="true" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="67" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C6" s="68" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="D6" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E6" s="68" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F6" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G6" s="68"/>
       <c r="H6" s="68"/>
@@ -11757,29 +11796,31 @@
         <v>9</v>
       </c>
       <c r="J6" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K6" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L6" s="67"/>
+      <c r="L6" s="67" t="s">
+        <v>294</v>
+      </c>
       <c r="M6" s="68"/>
     </row>
-    <row r="7" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="67" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C7" s="68" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D7" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="F7" s="67" t="s">
         <v>18</v>
@@ -11790,29 +11831,31 @@
         <v>9</v>
       </c>
       <c r="J7" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K7" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L7" s="67"/>
+      <c r="L7" s="67" t="s">
+        <v>299</v>
+      </c>
       <c r="M7" s="68"/>
     </row>
-    <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="67" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C8" s="68" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="D8" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F8" s="67" t="s">
         <v>18</v>
@@ -11823,32 +11866,34 @@
         <v>9</v>
       </c>
       <c r="J8" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K8" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L8" s="67"/>
+      <c r="L8" s="67" t="s">
+        <v>304</v>
+      </c>
       <c r="M8" s="68"/>
     </row>
-    <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="67" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C9" s="68" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="D9" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="F9" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G9" s="68"/>
       <c r="H9" s="68"/>
@@ -11856,32 +11901,34 @@
         <v>9</v>
       </c>
       <c r="J9" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K9" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L9" s="67"/>
+      <c r="L9" s="67" t="s">
+        <v>309</v>
+      </c>
       <c r="M9" s="68"/>
     </row>
-    <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="67" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="C10" s="68" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="D10" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="F10" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G10" s="68"/>
       <c r="H10" s="68"/>
@@ -11889,29 +11936,31 @@
         <v>9</v>
       </c>
       <c r="J10" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K10" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L10" s="67"/>
+      <c r="L10" s="67" t="s">
+        <v>313</v>
+      </c>
       <c r="M10" s="68"/>
     </row>
-    <row r="11" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="67" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C11" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="D11" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="F11" s="67" t="s">
         <v>18</v>
@@ -11922,17 +11971,19 @@
         <v>9</v>
       </c>
       <c r="J11" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K11" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L11" s="67"/>
+      <c r="L11" s="67" t="s">
+        <v>316</v>
+      </c>
       <c r="M11" s="68"/>
     </row>
-    <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="67" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="B12" s="67"/>
       <c r="C12" s="68" t="s">
@@ -11953,23 +12004,25 @@
         <v>9</v>
       </c>
       <c r="J12" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K12" s="71" t="n">
         <v>44412</v>
       </c>
-      <c r="L12" s="67"/>
+      <c r="L12" s="67" t="s">
+        <v>318</v>
+      </c>
       <c r="M12" s="68"/>
     </row>
-    <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="67" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="B13" s="67" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="C13" s="68" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="D13" s="69" t="s">
         <v>56</v>
@@ -11978,7 +12031,7 @@
         <v>223</v>
       </c>
       <c r="F13" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G13" s="68"/>
       <c r="H13" s="68"/>
@@ -11986,7 +12039,7 @@
         <v>9</v>
       </c>
       <c r="J13" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K13" s="71" t="n">
         <v>44412</v>
@@ -11994,24 +12047,24 @@
       <c r="L13" s="67"/>
       <c r="M13" s="68"/>
     </row>
-    <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="67" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="C14" s="68" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="D14" s="69" t="s">
         <v>56</v>
       </c>
       <c r="E14" s="68" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="F14" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
@@ -12019,7 +12072,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K14" s="71" t="n">
         <v>44412</v>
@@ -12027,24 +12080,24 @@
       <c r="L14" s="67"/>
       <c r="M14" s="68"/>
     </row>
-    <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="67" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C15" s="68" t="s">
         <v>247</v>
       </c>
       <c r="D15" s="69" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="E15" s="68" t="s">
         <v>247</v>
       </c>
       <c r="F15" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G15" s="68"/>
       <c r="H15" s="68"/>
@@ -12052,7 +12105,7 @@
         <v>9</v>
       </c>
       <c r="J15" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K15" s="71" t="n">
         <v>44412</v>
@@ -12060,9 +12113,9 @@
       <c r="L15" s="67"/>
       <c r="M15" s="68"/>
     </row>
-    <row r="16" customFormat="false" ht="25.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="58.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="67" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B16" s="67"/>
       <c r="C16" s="68" t="s">
@@ -12075,7 +12128,7 @@
         <v>252</v>
       </c>
       <c r="F16" s="67" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G16" s="68"/>
       <c r="H16" s="68"/>
@@ -12083,7 +12136,7 @@
         <v>9</v>
       </c>
       <c r="J16" s="70" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K16" s="71" t="n">
         <v>44412</v>
@@ -12091,9 +12144,53 @@
       <c r="L16" s="67"/>
       <c r="M16" s="68"/>
     </row>
-    <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="K17" s="71"/>
     </row>
+    <row r="18" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="45" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="48" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="49" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="50" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="52" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="53" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="54" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="55" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="56" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="57" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="59" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="60" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="61" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <conditionalFormatting sqref="D2:D16">
     <cfRule type="containsText" priority="2" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="magas" dxfId="214">
@@ -12134,7 +12231,7 @@
   </sheetPr>
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -12152,25 +12249,25 @@
   <sheetData>
     <row r="1" s="74" customFormat="true" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="74" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="C1" s="75" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="D1" s="75" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="E1" s="75" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="F1" s="75" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="G1" s="75" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" s="74" customFormat="true" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12183,301 +12280,301 @@
     </row>
     <row r="3" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="76" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B3" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C3" s="77" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="D3" s="77" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="E3" s="77" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="F3" s="77" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="G3" s="77" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="76" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B4" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="E4" s="77" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="F4" s="77" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G4" s="77" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="D5" s="77" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="E5" s="77" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="76" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="D6" s="77" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="E6" s="77" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="76" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C7" s="77" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="D7" s="77" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="E7" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="76" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C8" s="77" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="D8" s="77" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="E8" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="76" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C9" s="77" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="D9" s="77" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="E9" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="76" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B10" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C10" s="77" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="D10" s="77" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="E10" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="G10" s="77" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="76" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B11" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C11" s="77" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E11" s="77" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F11" s="77" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="G11" s="77" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="76" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B12" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C12" s="77" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D12" s="77" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="E12" s="77" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="F12" s="77" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="G12" s="77" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="76" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B13" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C13" s="77" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D13" s="77" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="E13" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F13" s="77" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="G13" s="77" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="76" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B14" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C14" s="77" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D14" s="77" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="E14" s="77" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="G14" s="77" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="76" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B15" s="77" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="C15" s="77" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D15" s="77" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="E15" s="77" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="F15" s="77" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="G15" s="77" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -12516,7 +12613,7 @@
   </sheetPr>
   <dimension ref="A1:IW38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -17186,7 +17283,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I41" activeCellId="0" sqref="I41"/>
     </sheetView>
   </sheetViews>
@@ -21039,7 +21136,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -22457,7 +22554,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -23575,7 +23672,7 @@
   </sheetPr>
   <dimension ref="A1:IW38"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -24229,7 +24326,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -25450,7 +25547,7 @@
   </sheetPr>
   <dimension ref="A1:IW45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -26683,7 +26780,7 @@
   </sheetPr>
   <dimension ref="A1:IW1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="88" zoomScaleNormal="88" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
